--- a/public/assets/excel/voters_template.xlsx
+++ b/public/assets/excel/voters_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brice\Documents\GitHub\eboto-mo\public\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6374C36-8E15-459B-80FD-1F8788B0EFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65190CC-AFF7-4438-A552-85E6B88A8B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37545" yWindow="525" windowWidth="21345" windowHeight="12915" xr2:uid="{D3986BDA-9B48-47DA-B0E3-B07B8A502D56}"/>
+    <workbookView xWindow="35805" yWindow="1125" windowWidth="21345" windowHeight="12915" xr2:uid="{D3986BDA-9B48-47DA-B0E3-B07B8A502D56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Full name</t>
+    <t>full_name</t>
   </si>
   <si>
-    <t>Email</t>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
